--- a/data-raw/Kuvio_innovaatiopolitiika_2022.xlsx
+++ b/data-raw/Kuvio_innovaatiopolitiika_2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/Tuottavuuslautakunta/Shared Documents/General/pRoductivity/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{22519287-498A-4E21-A1F8-CD4F86A683DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{993ACFC8-A535-4A12-94DE-16920B8EA3B5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{22519287-498A-4E21-A1F8-CD4F86A683DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE143821-C35E-43E1-B11B-36B9584A1644}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1035" windowWidth="21600" windowHeight="12390" xr2:uid="{C2C0F361-7632-4F56-9D4C-FD9674CE8535}"/>
+    <workbookView xWindow="2160" yWindow="165" windowWidth="17520" windowHeight="15405" xr2:uid="{C2C0F361-7632-4F56-9D4C-FD9674CE8535}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kuvio_4" sheetId="1" r:id="rId1"/>
+    <sheet name="Kuvio_8_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,10 +65,10 @@
     <t>Vuosi</t>
   </si>
   <si>
-    <t>Yrityksiltä saatu t&amp;k-rahoitus (milj. €)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yritysrahoituksen osuus (%) </t>
+    <t xml:space="preserve">Yritysrahoituksen osuus (%, oikea) </t>
+  </si>
+  <si>
+    <t>Yrityksiltä saatu t&amp;k-rahoitus (milj. €, vasen)</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,6 +631,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="9e0b2c17069702781a5de8ad55f0b85f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" xmlns:ns3="a9ba0a46-c686-46a2-ba56-670af7ed77b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa8050250656ce68e4eaea5737762b71" ns2:_="" ns3:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
@@ -813,7 +824,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -822,18 +833,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA85949B-0930-4801-A003-462C889AF817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30BCC0D7-DCA6-4CA5-AB28-E3652C073250}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -852,21 +863,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14A0BA0-EC5F-4DC4-905B-5B3F7830EC82}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA85949B-0930-4801-A003-462C889AF817}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
-    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>